--- a/Planung/TODOS.xlsx
+++ b/Planung/TODOS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Was</t>
   </si>
@@ -49,6 +49,56 @@
   </si>
   <si>
     <t>Kickoff mit dem Experten</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Ferien Experte eintragen</t>
+  </si>
+  <si>
+    <t>Reviewtermine festlegen (mit Betreuer und Experte)</t>
+  </si>
+  <si>
+    <t>Themeneingabe anpassen, Kanban etc</t>
+  </si>
+  <si>
+    <t>Auwände anpassen, Präsentationstechnikkurs</t>
+  </si>
+  <si>
+    <t>Ferien Betreuer eintragen</t>
+  </si>
+  <si>
+    <t>Ziele definieren</t>
+  </si>
+  <si>
+    <t>Risiken erheben, beurteilen, bewerten</t>
+  </si>
+  <si>
+    <t>Planen, tracken, Retro, Bewertung</t>
+  </si>
+  <si>
+    <t>Lessons learned</t>
+  </si>
+  <si>
+    <t>Abklären mit SBB wegen rechtlicher Lage</t>
+  </si>
+  <si>
+    <t>Checkliste für Ergebnisse</t>
+  </si>
+  <si>
+    <t>Tests definieren (Wie testen, Resultate definieren, 
+Ergebnis evaluieren)</t>
+  </si>
+  <si>
+    <t>Reports (1 Mal monatlich), siehe Template der Schule,
+inklusive Risikoveränderung</t>
+  </si>
+  <si>
+    <t>Kanban aufsetzen, Regeln mit Betreuer abmachen</t>
+  </si>
+  <si>
+    <t>Template für Artefaktmigration erstellen</t>
   </si>
 </sst>
 </file>
@@ -111,11 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -417,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="2"/>
   </cols>
@@ -469,6 +522,9 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -478,6 +534,92 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/TODOS.xlsx
+++ b/Planung/TODOS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Was</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Template für Artefaktmigration erstellen</t>
+  </si>
+  <si>
+    <t>Themeneingabe Planung/Deliverables/etc. anpassen??</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -569,56 +572,61 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Planung/TODOS.xlsx
+++ b/Planung/TODOS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Was</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Themeneingabe Planung/Deliverables/etc. anpassen??</t>
+  </si>
+  <si>
+    <t>Alle Templates harmonisieren</t>
+  </si>
+  <si>
+    <t>Bericht</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -172,6 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -473,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,44 +597,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5">
+        <v>41518</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/TODOS.xlsx
+++ b/Planung/TODOS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="25440" windowHeight="9270"/>
+    <workbookView xWindow="360" yWindow="210" windowWidth="25440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Was</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Kickoff mit dem Experten</t>
-  </si>
-  <si>
-    <t>Abstract</t>
   </si>
   <si>
     <t>Ferien Experte eintragen</t>
@@ -108,13 +105,40 @@
   </si>
   <si>
     <t>Bericht</t>
+  </si>
+  <si>
+    <t>To be reviewed</t>
+  </si>
+  <si>
+    <t>Eingabe Präsentationsbedürnisse</t>
+  </si>
+  <si>
+    <t>Abgabe Dokumentation/Anhänge</t>
+  </si>
+  <si>
+    <t>Upload Poster</t>
+  </si>
+  <si>
+    <t>Eingabe Abstract</t>
+  </si>
+  <si>
+    <t> 21.05.2013</t>
+  </si>
+  <si>
+    <t>Upload Projektantrag</t>
+  </si>
+  <si>
+    <t>In Arbeit</t>
+  </si>
+  <si>
+    <t>Projekt "Bild"?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -125,6 +149,26 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -167,10 +211,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -179,8 +224,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,17 +533,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -550,109 +604,172 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
+      <c r="A9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
+        <v>41408</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
+      <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="10">
+        <v>41413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5">
         <v>41518</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="5">
+        <v>41529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="5">
+        <v>41529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5">
+        <v>41529</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A29" r:id="rId1" display="http://diplom.sws.bfh.ch/thesis_means.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A30" r:id="rId2" display="http://diplom.sws.bfh.ch/thesis_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A31" r:id="rId3" display="http://diplom.sws.bfh.ch/poster_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A8" r:id="rId4" display="http://diplom.sws.bfh.ch/thesis_abstract.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A10" r:id="rId5" display="http://diplom.sws.bfh.ch/prop_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Planung/TODOS.xlsx
+++ b/Planung/TODOS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Was</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>RCS mit Compat Layer</t>
-  </si>
-  <si>
-    <t>Aspekte rausnehmen</t>
   </si>
   <si>
     <t>Kickoff mit dem Experten</t>
@@ -132,6 +129,12 @@
   </si>
   <si>
     <t>Projekt "Bild"?</t>
+  </si>
+  <si>
+    <t>RCS Projektbeschrieb für Projektantrag</t>
+  </si>
+  <si>
+    <t>Aspekte bestimmen</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -592,12 +595,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -605,18 +608,18 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
@@ -625,128 +628,129 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8">
+        <v>41408</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="10">
+        <v>41413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="10">
-        <v>41413</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="D29" s="5">
         <v>41518</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="5">
-        <v>41529</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="5">
         <v>41529</v>
@@ -754,17 +758,25 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="5">
         <v>41529</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="5">
+        <v>41529</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" display="http://diplom.sws.bfh.ch/thesis_means.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
-    <hyperlink ref="A30" r:id="rId2" display="http://diplom.sws.bfh.ch/thesis_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
-    <hyperlink ref="A31" r:id="rId3" display="http://diplom.sws.bfh.ch/poster_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A30" r:id="rId1" display="http://diplom.sws.bfh.ch/thesis_means.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A31" r:id="rId2" display="http://diplom.sws.bfh.ch/thesis_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A32" r:id="rId3" display="http://diplom.sws.bfh.ch/poster_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
     <hyperlink ref="A8" r:id="rId4" display="http://diplom.sws.bfh.ch/thesis_abstract.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
     <hyperlink ref="A10" r:id="rId5" display="http://diplom.sws.bfh.ch/prop_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
   </hyperlinks>

--- a/Planung/TODOS.xlsx
+++ b/Planung/TODOS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="210" windowWidth="25440" windowHeight="9210"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="25440" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Was</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Aspekte bestimmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAS Projektbericht mit Handbucheinträgen????? Frage an Experte und Adrian</t>
   </si>
 </sst>
 </file>
@@ -536,15 +539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="2"/>
@@ -770,6 +773,11 @@
       </c>
       <c r="D32" s="5">
         <v>41529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/TODOS.xlsx
+++ b/Planung/TODOS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Was</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Themeneingabe anpassen, Kanban etc</t>
-  </si>
-  <si>
-    <t>Auwände anpassen, Präsentationstechnikkurs</t>
   </si>
   <si>
     <t>Ferien Betreuer eintragen</t>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve"> MAS Projektbericht mit Handbucheinträgen????? Frage an Experte und Adrian</t>
+  </si>
+  <si>
+    <t>Aufwände anpassen, Präsentationstechnikkurs</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -598,7 +598,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="5">
+        <v>41426</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -611,40 +614,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="8">
         <v>41408</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="8">
         <v>41408</v>
       </c>
@@ -659,7 +666,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -672,72 +679,90 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D23" s="10">
+        <v>41415</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D25" s="10">
+        <v>41415</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D27" s="5">
+        <v>41426</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="10">
         <v>41413</v>
@@ -745,7 +770,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="5">
         <v>41518</v>
@@ -753,7 +778,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="5">
         <v>41529</v>
@@ -761,7 +786,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="5">
         <v>41529</v>
@@ -769,7 +794,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="5">
         <v>41529</v>
@@ -777,7 +802,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/TODOS.xlsx
+++ b/Planung/TODOS.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Was</t>
   </si>
@@ -138,13 +138,19 @@
   </si>
   <si>
     <t>Aufwände anpassen, Präsentationstechnikkurs</t>
+  </si>
+  <si>
+    <t>Bei Experte wegen Beurteilungskriterien nachfragen</t>
+  </si>
+  <si>
+    <t>in Arbeit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -175,6 +181,11 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -221,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -235,8 +246,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -587,6 +602,9 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -600,6 +618,9 @@
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="5">
         <v>41426</v>
       </c>
@@ -619,12 +640,12 @@
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -658,46 +679,46 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="12">
+        <v>41415</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -705,88 +726,92 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="9">
         <v>41415</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="10">
-        <v>41415</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D26" s="9">
+        <v>41415</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D28" s="5">
         <v>41426</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="10">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="11">
         <v>41413</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D30" s="5">
         <v>41518</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="5">
-        <v>41529</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="5">
         <v>41529</v>
@@ -794,22 +819,30 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="5">
         <v>41529</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5">
+        <v>41529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="http://diplom.sws.bfh.ch/thesis_means.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
-    <hyperlink ref="A31" r:id="rId2" display="http://diplom.sws.bfh.ch/thesis_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
-    <hyperlink ref="A32" r:id="rId3" display="http://diplom.sws.bfh.ch/poster_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A31" r:id="rId1" display="http://diplom.sws.bfh.ch/thesis_means.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A32" r:id="rId2" display="http://diplom.sws.bfh.ch/thesis_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A33" r:id="rId3" display="http://diplom.sws.bfh.ch/poster_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
     <hyperlink ref="A8" r:id="rId4" display="http://diplom.sws.bfh.ch/thesis_abstract.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
     <hyperlink ref="A10" r:id="rId5" display="http://diplom.sws.bfh.ch/prop_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
   </hyperlinks>

--- a/Planung/TODOS.xlsx
+++ b/Planung/TODOS.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -841,10 +841,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A31" r:id="rId1" display="http://diplom.sws.bfh.ch/thesis_means.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
-    <hyperlink ref="A32" r:id="rId2" display="http://diplom.sws.bfh.ch/thesis_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
-    <hyperlink ref="A33" r:id="rId3" display="http://diplom.sws.bfh.ch/poster_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
-    <hyperlink ref="A8" r:id="rId4" display="http://diplom.sws.bfh.ch/thesis_abstract.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
-    <hyperlink ref="A10" r:id="rId5" display="http://diplom.sws.bfh.ch/prop_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A33" r:id="rId2" display="http://diplom.sws.bfh.ch/poster_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A8" r:id="rId3" display="http://diplom.sws.bfh.ch/thesis_abstract.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A10" r:id="rId4" display="http://diplom.sws.bfh.ch/prop_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
+    <hyperlink ref="A32" r:id="rId5" display="http://diplom.sws.bfh.ch/thesis_upload.php?id=d31715757c83c5a2744bbe89d41ba06c"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId6"/>

--- a/Planung/TODOS.xlsx
+++ b/Planung/TODOS.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Was</t>
   </si>
@@ -557,7 +557,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,6 +696,9 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
